--- a/Code/Results/Cases/Case_1_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6976994835249286</v>
+        <v>0.5622756085975311</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07703570873440668</v>
+        <v>0.02960867911500742</v>
       </c>
       <c r="E2">
-        <v>0.1542858541425816</v>
+        <v>0.3621951315892704</v>
       </c>
       <c r="F2">
-        <v>0.3430155608634777</v>
+        <v>0.5475057961777239</v>
       </c>
       <c r="G2">
-        <v>0.2384863882412276</v>
+        <v>0.3883662425929231</v>
       </c>
       <c r="H2">
-        <v>0.2263425414758586</v>
+        <v>0.5568190128946853</v>
       </c>
       <c r="I2">
-        <v>0.404123344805658</v>
+        <v>0.9995892122024497</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.452561501026111</v>
+        <v>0.5202082050356296</v>
       </c>
       <c r="L2">
-        <v>0.1924144038487015</v>
+        <v>0.1282284262681941</v>
       </c>
       <c r="M2">
-        <v>0.1902912080103505</v>
+        <v>0.1427426126049625</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9287211360690009</v>
+        <v>1.834042247836109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6128053994550271</v>
+        <v>0.5388885829726746</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06823450432156619</v>
+        <v>0.02667756787597142</v>
       </c>
       <c r="E3">
-        <v>0.1596972961185379</v>
+        <v>0.3654509267136796</v>
       </c>
       <c r="F3">
-        <v>0.32594920982757</v>
+        <v>0.5477684406437007</v>
       </c>
       <c r="G3">
-        <v>0.230030090953818</v>
+        <v>0.3900127814993795</v>
       </c>
       <c r="H3">
-        <v>0.2275543921872725</v>
+        <v>0.5609305696444551</v>
       </c>
       <c r="I3">
-        <v>0.4251519348618569</v>
+        <v>1.012007347558423</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.299840697376084</v>
+        <v>0.4690243635214983</v>
       </c>
       <c r="L3">
-        <v>0.1684656197290977</v>
+        <v>0.121790384033801</v>
       </c>
       <c r="M3">
-        <v>0.1669433955441875</v>
+        <v>0.1363775074497156</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9130127755310724</v>
+        <v>1.845911253040782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.560875128596166</v>
+        <v>0.5246913574374901</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06281647510710542</v>
+        <v>0.02486550517321717</v>
       </c>
       <c r="E4">
-        <v>0.16319488787715</v>
+        <v>0.3675681809030094</v>
       </c>
       <c r="F4">
-        <v>0.3161639652599177</v>
+        <v>0.5482881788817622</v>
       </c>
       <c r="G4">
-        <v>0.2254567945065205</v>
+        <v>0.3913151934372294</v>
       </c>
       <c r="H4">
-        <v>0.2287031499807952</v>
+        <v>0.5637031371758567</v>
       </c>
       <c r="I4">
-        <v>0.4388643267713697</v>
+        <v>1.020093972564506</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.205859122876916</v>
+        <v>0.4374107587989897</v>
       </c>
       <c r="L4">
-        <v>0.1538473162742804</v>
+        <v>0.1178859597127655</v>
       </c>
       <c r="M4">
-        <v>0.1526719555781817</v>
+        <v>0.1325153555477598</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9055188286805418</v>
+        <v>1.854327943518385</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5397562027709739</v>
+        <v>0.51894728618268</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06060466146911381</v>
+        <v>0.0241240093488102</v>
       </c>
       <c r="E5">
-        <v>0.164663843525572</v>
+        <v>0.3684607490171328</v>
       </c>
       <c r="F5">
-        <v>0.3123427183633893</v>
+        <v>0.5485901548464298</v>
       </c>
       <c r="G5">
-        <v>0.2237413656662213</v>
+        <v>0.3919191766058958</v>
       </c>
       <c r="H5">
-        <v>0.2292698090903826</v>
+        <v>0.5648954088991687</v>
       </c>
       <c r="I5">
-        <v>0.4446490792081192</v>
+        <v>1.023505515327452</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.167501277495489</v>
+        <v>0.4244819447153247</v>
       </c>
       <c r="L5">
-        <v>0.1479095554488126</v>
+        <v>0.1163071962756277</v>
       </c>
       <c r="M5">
-        <v>0.1468705096516452</v>
+        <v>0.1309532130222983</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9029834196427942</v>
+        <v>1.85804174151265</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5362518549347328</v>
+        <v>0.5179960050187447</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06023714359743337</v>
+        <v>0.02400070054394376</v>
       </c>
       <c r="E6">
-        <v>0.1649103898191906</v>
+        <v>0.3686107588211121</v>
       </c>
       <c r="F6">
-        <v>0.311718018398949</v>
+        <v>0.5486457453676223</v>
       </c>
       <c r="G6">
-        <v>0.2234652618477426</v>
+        <v>0.3920238897858823</v>
       </c>
       <c r="H6">
-        <v>0.2293697615816086</v>
+        <v>0.5650971567471927</v>
       </c>
       <c r="I6">
-        <v>0.445621392740172</v>
+        <v>1.024079017529452</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.161128200696339</v>
+        <v>0.4223323720775625</v>
       </c>
       <c r="L6">
-        <v>0.1469246935995514</v>
+        <v>0.1160457912293609</v>
       </c>
       <c r="M6">
-        <v>0.1459079938399306</v>
+        <v>0.1306945320661264</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9025930897740295</v>
+        <v>1.858675563797775</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5605901445979384</v>
+        <v>0.5246137224707184</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06278666219750306</v>
+        <v>0.02485551746110559</v>
       </c>
       <c r="E7">
-        <v>0.1632145223857859</v>
+        <v>0.3675800977823656</v>
       </c>
       <c r="F7">
-        <v>0.3161117676084473</v>
+        <v>0.5482918862569903</v>
       </c>
       <c r="G7">
-        <v>0.22543306902989</v>
+        <v>0.391323042478021</v>
       </c>
       <c r="H7">
-        <v>0.2287103973624198</v>
+        <v>0.5637189637313398</v>
       </c>
       <c r="I7">
-        <v>0.4389415508052483</v>
+        <v>1.020139511365988</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.205342065353875</v>
+        <v>0.4372365814184036</v>
       </c>
       <c r="L7">
-        <v>0.1537671624275063</v>
+        <v>0.1178646179225993</v>
       </c>
       <c r="M7">
-        <v>0.1525936598204112</v>
+        <v>0.1324942403295672</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9054825651528091</v>
+        <v>1.854376879464354</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.668383812052781</v>
+        <v>0.5541783567306027</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07400372786453602</v>
+        <v>0.02860061783994894</v>
       </c>
       <c r="E8">
-        <v>0.1561152073042269</v>
+        <v>0.3632932322709403</v>
       </c>
       <c r="F8">
-        <v>0.3369821621247766</v>
+        <v>0.5475219757770304</v>
       </c>
       <c r="G8">
-        <v>0.2354376512615275</v>
+        <v>0.3888734564273122</v>
       </c>
       <c r="H8">
-        <v>0.2266744117645771</v>
+        <v>0.5581852252488346</v>
       </c>
       <c r="I8">
-        <v>0.4112050430166203</v>
+        <v>1.003775158141909</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.39994282273085</v>
+        <v>0.5025992456992299</v>
       </c>
       <c r="L8">
-        <v>0.1841374573248942</v>
+        <v>0.1259985748210397</v>
       </c>
       <c r="M8">
-        <v>0.1822263972029248</v>
+        <v>0.1405384466419086</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9228446281503295</v>
+        <v>1.837900348161881</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8816090085066719</v>
+        <v>0.6134229176605572</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09590834983762164</v>
+        <v>0.03584534859020039</v>
       </c>
       <c r="E9">
-        <v>0.1435967071516453</v>
+        <v>0.3558220341365015</v>
       </c>
       <c r="F9">
-        <v>0.3837948901720125</v>
+        <v>0.5488556494041958</v>
       </c>
       <c r="G9">
-        <v>0.2603172487582484</v>
+        <v>0.3863845531193775</v>
       </c>
       <c r="H9">
-        <v>0.2260452328742559</v>
+        <v>0.5492995640650804</v>
       </c>
       <c r="I9">
-        <v>0.3633773034292282</v>
+        <v>0.9753468533030283</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.780227553096012</v>
+        <v>0.6292620930045985</v>
       </c>
       <c r="L9">
-        <v>0.2444951642115285</v>
+        <v>0.1423305709971743</v>
       </c>
       <c r="M9">
-        <v>0.2409370821527723</v>
+        <v>0.1566733622428274</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9750208236610263</v>
+        <v>1.814549206055261</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.039835855261828</v>
+        <v>0.6576996767951755</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1119755705897063</v>
+        <v>0.04110601843690631</v>
       </c>
       <c r="E10">
-        <v>0.1352760507717901</v>
+        <v>0.3508997509826581</v>
       </c>
       <c r="F10">
-        <v>0.4223364374727794</v>
+        <v>0.5515689512053328</v>
       </c>
       <c r="G10">
-        <v>0.2823143755914614</v>
+        <v>0.3859709550311194</v>
       </c>
       <c r="H10">
-        <v>0.2278558726437012</v>
+        <v>0.5439669205611821</v>
       </c>
       <c r="I10">
-        <v>0.332540867560251</v>
+        <v>0.9566893522558235</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.059350562024321</v>
+        <v>0.7213628056065602</v>
       </c>
       <c r="L10">
-        <v>0.2895032900609067</v>
+        <v>0.1545581308636059</v>
       </c>
       <c r="M10">
-        <v>0.2845763049407708</v>
+        <v>0.1687417073076034</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.025956908784437</v>
+        <v>1.802857518382964</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.112264457893701</v>
+        <v>0.6780004482763786</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1192863937608308</v>
+        <v>0.043485484317074</v>
       </c>
       <c r="E11">
-        <v>0.1316859865852507</v>
+        <v>0.348782828657942</v>
       </c>
       <c r="F11">
-        <v>0.4409017211647637</v>
+        <v>0.5531797663869753</v>
       </c>
       <c r="G11">
-        <v>0.2932484586727213</v>
+        <v>0.3860909127201637</v>
       </c>
       <c r="H11">
-        <v>0.2292252776328354</v>
+        <v>0.541799994688354</v>
       </c>
       <c r="I11">
-        <v>0.319516700177493</v>
+        <v>0.9486847119265249</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.186401710789056</v>
+        <v>0.7630465840919669</v>
       </c>
       <c r="L11">
-        <v>0.3101639414849586</v>
+        <v>0.1601695907241378</v>
       </c>
       <c r="M11">
-        <v>0.3045711575575965</v>
+        <v>0.1742772746138712</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.052228626501062</v>
+        <v>1.798725866153916</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.139765132382507</v>
+        <v>0.6857101982737106</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1220556577619192</v>
+        <v>0.04438452996946296</v>
       </c>
       <c r="E12">
-        <v>0.1303550063588419</v>
+        <v>0.3479987311866866</v>
       </c>
       <c r="F12">
-        <v>0.4480918993196781</v>
+        <v>0.5538438635802621</v>
       </c>
       <c r="G12">
-        <v>0.2975328470881351</v>
+        <v>0.3861806995337957</v>
       </c>
       <c r="H12">
-        <v>0.2298269344027375</v>
+        <v>0.5410166208038589</v>
       </c>
       <c r="I12">
-        <v>0.3147352979111488</v>
+        <v>0.9457229370459768</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.234534779731717</v>
+        <v>0.7787996871902862</v>
       </c>
       <c r="L12">
-        <v>0.3180179384211641</v>
+        <v>0.1623014672509697</v>
       </c>
       <c r="M12">
-        <v>0.3121660797175565</v>
+        <v>0.1763798879669451</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.062655003579238</v>
+        <v>1.797332025348254</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.133838954025947</v>
+        <v>0.684048783654589</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1214592017191052</v>
+        <v>0.04419099435845908</v>
       </c>
       <c r="E13">
-        <v>0.1306403818442605</v>
+        <v>0.3481668214301754</v>
       </c>
       <c r="F13">
-        <v>0.4465360646032792</v>
+        <v>0.5536984319664313</v>
       </c>
       <c r="G13">
-        <v>0.2966035536475431</v>
+        <v>0.3861593884683003</v>
       </c>
       <c r="H13">
-        <v>0.2296935847592749</v>
+        <v>0.5411836807911925</v>
       </c>
       <c r="I13">
-        <v>0.3157582585032905</v>
+        <v>0.9463577214512267</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.224167327206345</v>
+        <v>0.7754083971051386</v>
       </c>
       <c r="L13">
-        <v>0.3163250362555914</v>
+        <v>0.1618420228101343</v>
       </c>
       <c r="M13">
-        <v>0.3105292956584762</v>
+        <v>0.1759267696047218</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.060387714420358</v>
+        <v>1.797624620148639</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.114525428985303</v>
+        <v>0.6786342906908942</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1195142031322121</v>
+        <v>0.04355948981508106</v>
       </c>
       <c r="E14">
-        <v>0.1315759122142961</v>
+        <v>0.3487179693102345</v>
       </c>
       <c r="F14">
-        <v>0.4414899887727231</v>
+        <v>0.5532333176471838</v>
       </c>
       <c r="G14">
-        <v>0.2935979916461093</v>
+        <v>0.3860974101484373</v>
       </c>
       <c r="H14">
-        <v>0.2292730835497281</v>
+        <v>0.5417348008472445</v>
       </c>
       <c r="I14">
-        <v>0.3191202766389125</v>
+        <v>0.9484396539291247</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.190361152170937</v>
+        <v>0.764343240989632</v>
       </c>
       <c r="L14">
-        <v>0.3108094674501558</v>
+        <v>0.1603448431166896</v>
       </c>
       <c r="M14">
-        <v>0.3051955131021273</v>
+        <v>0.1744501301635282</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.053076643983104</v>
+        <v>1.798607772185335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.102705183309212</v>
+        <v>0.6753206427365512</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1183229585519427</v>
+        <v>0.04317241240981673</v>
       </c>
       <c r="E15">
-        <v>0.132152676770446</v>
+        <v>0.3490578455781339</v>
       </c>
       <c r="F15">
-        <v>0.4384202971236988</v>
+        <v>0.5529554684354494</v>
       </c>
       <c r="G15">
-        <v>0.2917760595967565</v>
+        <v>0.386065225453784</v>
       </c>
       <c r="H15">
-        <v>0.2290264773514892</v>
+        <v>0.5420772203959388</v>
       </c>
       <c r="I15">
-        <v>0.3211994098973534</v>
+        <v>0.9497239364455847</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.169657027148617</v>
+        <v>0.7575613643656425</v>
       </c>
       <c r="L15">
-        <v>0.3074350695522412</v>
+        <v>0.1594286773702152</v>
       </c>
       <c r="M15">
-        <v>0.3019315360075652</v>
+        <v>0.1735464768652974</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.04866161410564</v>
+        <v>1.799232216032351</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.035112275902861</v>
+        <v>0.6563761243001238</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1114978737117838</v>
+        <v>0.04095023643372997</v>
       </c>
       <c r="E16">
-        <v>0.1355146328880548</v>
+        <v>0.3510405530135565</v>
       </c>
       <c r="F16">
-        <v>0.4211448917775513</v>
+        <v>0.551471254948531</v>
       </c>
       <c r="G16">
-        <v>0.2816193557158329</v>
+        <v>0.3859693202221308</v>
       </c>
       <c r="H16">
-        <v>0.2277777487568713</v>
+        <v>0.5441137411113885</v>
       </c>
       <c r="I16">
-        <v>0.3334127483582048</v>
+        <v>0.9572221876209106</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.051049895873206</v>
+        <v>0.7186342978032201</v>
       </c>
       <c r="L16">
-        <v>0.2881571075870397</v>
+        <v>0.1541923862080807</v>
       </c>
       <c r="M16">
-        <v>0.2832727035352036</v>
+        <v>0.168380850451598</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.024305073414325</v>
+        <v>1.803151419931098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9937676415218277</v>
+        <v>0.6447945976240987</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1073117449259087</v>
+        <v>0.03958347803580864</v>
       </c>
       <c r="E17">
-        <v>0.1376273549938287</v>
+        <v>0.352288159170649</v>
       </c>
       <c r="F17">
-        <v>0.4108193728011145</v>
+        <v>0.5506571554356654</v>
       </c>
       <c r="G17">
-        <v>0.2756333853441859</v>
+        <v>0.3859894391155407</v>
       </c>
       <c r="H17">
-        <v>0.2271546686165138</v>
+        <v>0.5454293689355936</v>
       </c>
       <c r="I17">
-        <v>0.3411666071868389</v>
+        <v>0.9619457584831679</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.978315148471268</v>
+        <v>0.694698483453692</v>
       </c>
       <c r="L17">
-        <v>0.2763808060065003</v>
+        <v>0.1509925772407996</v>
       </c>
       <c r="M17">
-        <v>0.2718646608535948</v>
+        <v>0.1652234859358259</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.01017943159512</v>
+        <v>1.805859764143449</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9700291393144767</v>
+        <v>0.6381482152781643</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1049041248346896</v>
+        <v>0.03879607367017002</v>
       </c>
       <c r="E18">
-        <v>0.138860867143433</v>
+        <v>0.3530172585108995</v>
       </c>
       <c r="F18">
-        <v>0.4049768721440188</v>
+        <v>0.5502243485217306</v>
       </c>
       <c r="G18">
-        <v>0.2722770465449003</v>
+        <v>0.3860300080422903</v>
       </c>
       <c r="H18">
-        <v>0.2268473642686999</v>
+        <v>0.546210456381985</v>
       </c>
       <c r="I18">
-        <v>0.345720479713238</v>
+        <v>0.9647080708717795</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.936486587293587</v>
+        <v>0.6809112171449101</v>
       </c>
       <c r="L18">
-        <v>0.2696246967351357</v>
+        <v>0.1491567586915323</v>
       </c>
       <c r="M18">
-        <v>0.2653163576618134</v>
+        <v>0.1634117557149359</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.002344558149957</v>
+        <v>1.807529251515675</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9619986180007913</v>
+        <v>0.6359004594040414</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1040889519319563</v>
+        <v>0.03852925342761182</v>
       </c>
       <c r="E19">
-        <v>0.139281647951051</v>
+        <v>0.3532660970998167</v>
       </c>
       <c r="F19">
-        <v>0.4030149322497323</v>
+        <v>0.5500838954563108</v>
       </c>
       <c r="G19">
-        <v>0.2711552168285749</v>
+        <v>0.3860487225239453</v>
       </c>
       <c r="H19">
-        <v>0.2267519522654169</v>
+        <v>0.54647910645118</v>
       </c>
       <c r="I19">
-        <v>0.3472783116724596</v>
+        <v>0.9656511469530038</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.922324970783848</v>
+        <v>0.6762396769173336</v>
       </c>
       <c r="L19">
-        <v>0.2673400644564055</v>
+        <v>0.1485359803905908</v>
       </c>
       <c r="M19">
-        <v>0.2631014190911536</v>
+        <v>0.1627990783568194</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9997406382429261</v>
+        <v>1.808113697799797</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9981644566350383</v>
+        <v>0.6460259221263129</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1077573480284002</v>
+        <v>0.03972910471406976</v>
       </c>
       <c r="E20">
-        <v>0.1374005517942423</v>
+        <v>0.3521541585198433</v>
       </c>
       <c r="F20">
-        <v>0.4119084775130446</v>
+        <v>0.5507401498360309</v>
       </c>
       <c r="G20">
-        <v>0.2762615617161259</v>
+        <v>0.3859842959255104</v>
       </c>
       <c r="H20">
-        <v>0.2272156779455088</v>
+        <v>0.5452867958604273</v>
       </c>
       <c r="I20">
-        <v>0.3403314166904998</v>
+        <v>0.961438223572598</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.986057135699554</v>
+        <v>0.6972485706578482</v>
       </c>
       <c r="L20">
-        <v>0.2776325976138452</v>
+        <v>0.1513327243618932</v>
       </c>
       <c r="M20">
-        <v>0.2730776706819071</v>
+        <v>0.1655591485567811</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.011652909197295</v>
+        <v>1.805559893414028</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.120196211103831</v>
+        <v>0.6802240582640593</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1200854696378713</v>
+        <v>0.04374503282160447</v>
       </c>
       <c r="E21">
-        <v>0.1313003471055678</v>
+        <v>0.3485556082718497</v>
       </c>
       <c r="F21">
-        <v>0.4429677092511994</v>
+        <v>0.5533684645132979</v>
       </c>
       <c r="G21">
-        <v>0.2944768060026277</v>
+        <v>0.3861144102848897</v>
       </c>
       <c r="H21">
-        <v>0.2293943016460815</v>
+        <v>0.5415719144019278</v>
       </c>
       <c r="I21">
-        <v>0.3181286324356751</v>
+        <v>0.9478262562425375</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.2002901723489</v>
+        <v>0.7675942119340675</v>
       </c>
       <c r="L21">
-        <v>0.3124286737455151</v>
+        <v>0.1607844137297292</v>
       </c>
       <c r="M21">
-        <v>0.3067615192912285</v>
+        <v>0.1748836820422568</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.055210849489782</v>
+        <v>1.79831436280702</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.200384108597035</v>
+        <v>0.7027041613337417</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.128147639078847</v>
+        <v>0.04635795793657849</v>
       </c>
       <c r="E22">
-        <v>0.1274798500482015</v>
+        <v>0.3463059351647759</v>
       </c>
       <c r="F22">
-        <v>0.4642045779282924</v>
+        <v>0.5554016386578482</v>
       </c>
       <c r="G22">
-        <v>0.3072255568993398</v>
+        <v>0.3864580451349013</v>
       </c>
       <c r="H22">
-        <v>0.2313048343245327</v>
+        <v>0.5393608013135349</v>
       </c>
       <c r="I22">
-        <v>0.3044986057749526</v>
+        <v>0.9393346110319403</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.340434958887244</v>
+        <v>0.8133842912290277</v>
       </c>
       <c r="L22">
-        <v>0.3353480540466904</v>
+        <v>0.1670020262435656</v>
       </c>
       <c r="M22">
-        <v>0.3289130913974816</v>
+        <v>0.1810151228608348</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.086479995620181</v>
+        <v>1.794574130936979</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.157543646711929</v>
+        <v>0.6906944371536952</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1238440531225962</v>
+        <v>0.04496447758519651</v>
       </c>
       <c r="E23">
-        <v>0.1295035465132395</v>
+        <v>0.3474972924009745</v>
       </c>
       <c r="F23">
-        <v>0.4527802915334078</v>
+        <v>0.5542876437618602</v>
       </c>
       <c r="G23">
-        <v>0.300340436797967</v>
+        <v>0.3862509608073879</v>
       </c>
       <c r="H23">
-        <v>0.2302390166327797</v>
+        <v>0.5405210916394196</v>
       </c>
       <c r="I23">
-        <v>0.3116904563598499</v>
+        <v>0.9438297477537656</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.265621363114576</v>
+        <v>0.7889624979437144</v>
       </c>
       <c r="L23">
-        <v>0.3230980432643662</v>
+        <v>0.1636799135026337</v>
       </c>
       <c r="M23">
-        <v>0.3170768796082513</v>
+        <v>0.1777392908321929</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.069523648653757</v>
+        <v>1.796479293958555</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9961765603747494</v>
+        <v>0.6454692029231239</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1075558938946273</v>
+        <v>0.03966327198799036</v>
       </c>
       <c r="E24">
-        <v>0.1375030307475276</v>
+        <v>0.3522147033497576</v>
       </c>
       <c r="F24">
-        <v>0.4114158020325931</v>
+        <v>0.5507025183285847</v>
       </c>
       <c r="G24">
-        <v>0.2759772989758815</v>
+        <v>0.3859865308264858</v>
       </c>
       <c r="H24">
-        <v>0.2271879373919674</v>
+        <v>0.5453511761577658</v>
       </c>
       <c r="I24">
-        <v>0.340708707529485</v>
+        <v>0.9616675347368915</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.982557022639526</v>
+        <v>0.6960957579191813</v>
       </c>
       <c r="L24">
-        <v>0.2770666185235626</v>
+        <v>0.1511789320211818</v>
       </c>
       <c r="M24">
-        <v>0.2725292369586967</v>
+        <v>0.1654073846331414</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.010985861087903</v>
+        <v>1.805695114782537</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8236841448516543</v>
+        <v>0.5972623341455403</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08998942279263389</v>
+        <v>0.03389624663306989</v>
       </c>
       <c r="E25">
-        <v>0.1468309288572092</v>
+        <v>0.3577434097383219</v>
       </c>
       <c r="F25">
-        <v>0.3704446530767953</v>
+        <v>0.548190437985582</v>
       </c>
       <c r="G25">
-        <v>0.2529723792672272</v>
+        <v>0.3868096546580873</v>
       </c>
       <c r="H25">
-        <v>0.225833139836638</v>
+        <v>0.5514931950317745</v>
       </c>
       <c r="I25">
-        <v>0.3755830978117487</v>
+        <v>0.982645795836655</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.677439375179034</v>
+        <v>0.5951621663460855</v>
       </c>
       <c r="L25">
-        <v>0.2280635596370928</v>
+        <v>0.1378719250622424</v>
       </c>
       <c r="M25">
-        <v>0.2249761712646823</v>
+        <v>0.1522704517802573</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9588099747927146</v>
+        <v>1.819906880378241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5622756085975311</v>
+        <v>0.6976994835249286</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02960867911500742</v>
+        <v>0.07703570873440668</v>
       </c>
       <c r="E2">
-        <v>0.3621951315892704</v>
+        <v>0.1542858541426169</v>
       </c>
       <c r="F2">
-        <v>0.5475057961777239</v>
+        <v>0.3430155608634564</v>
       </c>
       <c r="G2">
-        <v>0.3883662425929231</v>
+        <v>0.2384863882412702</v>
       </c>
       <c r="H2">
-        <v>0.5568190128946853</v>
+        <v>0.2263425414757307</v>
       </c>
       <c r="I2">
-        <v>0.9995892122024497</v>
+        <v>0.4041233448056527</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5202082050356296</v>
+        <v>1.452561501026167</v>
       </c>
       <c r="L2">
-        <v>0.1282284262681941</v>
+        <v>0.1924144038488151</v>
       </c>
       <c r="M2">
-        <v>0.1427426126049625</v>
+        <v>0.1902912080103434</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.834042247836109</v>
+        <v>0.9287211360689867</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5388885829726746</v>
+        <v>0.6128053994549134</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02667756787597142</v>
+        <v>0.06823450432161593</v>
       </c>
       <c r="E3">
-        <v>0.3654509267136796</v>
+        <v>0.1596972961185084</v>
       </c>
       <c r="F3">
-        <v>0.5477684406437007</v>
+        <v>0.32594920982757</v>
       </c>
       <c r="G3">
-        <v>0.3900127814993795</v>
+        <v>0.2300300909538038</v>
       </c>
       <c r="H3">
-        <v>0.5609305696444551</v>
+        <v>0.2275543921872654</v>
       </c>
       <c r="I3">
-        <v>1.012007347558423</v>
+        <v>0.4251519348618569</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4690243635214983</v>
+        <v>1.29984069737597</v>
       </c>
       <c r="L3">
-        <v>0.121790384033801</v>
+        <v>0.1684656197291119</v>
       </c>
       <c r="M3">
-        <v>0.1363775074497156</v>
+        <v>0.1669433955441981</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.845911253040782</v>
+        <v>0.9130127755310724</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5246913574374901</v>
+        <v>0.560875128596166</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02486550517321717</v>
+        <v>0.06281647510710542</v>
       </c>
       <c r="E4">
-        <v>0.3675681809030094</v>
+        <v>0.1631948878771894</v>
       </c>
       <c r="F4">
-        <v>0.5482881788817622</v>
+        <v>0.3161639652599035</v>
       </c>
       <c r="G4">
-        <v>0.3913151934372294</v>
+        <v>0.2254567945064707</v>
       </c>
       <c r="H4">
-        <v>0.5637031371758567</v>
+        <v>0.2287031499807881</v>
       </c>
       <c r="I4">
-        <v>1.020093972564506</v>
+        <v>0.4388643267713679</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4374107587989897</v>
+        <v>1.205859122876831</v>
       </c>
       <c r="L4">
-        <v>0.1178859597127655</v>
+        <v>0.1538473162744012</v>
       </c>
       <c r="M4">
-        <v>0.1325153555477598</v>
+        <v>0.1526719555781959</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.854327943518385</v>
+        <v>0.9055188286805134</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.51894728618268</v>
+        <v>0.5397562027710876</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0241240093488102</v>
+        <v>0.06060466146912091</v>
       </c>
       <c r="E5">
-        <v>0.3684607490171328</v>
+        <v>0.1646638435255701</v>
       </c>
       <c r="F5">
-        <v>0.5485901548464298</v>
+        <v>0.3123427183633893</v>
       </c>
       <c r="G5">
-        <v>0.3919191766058958</v>
+        <v>0.2237413656662639</v>
       </c>
       <c r="H5">
-        <v>0.5648954088991687</v>
+        <v>0.2292698090903826</v>
       </c>
       <c r="I5">
-        <v>1.023505515327452</v>
+        <v>0.4446490792081121</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4244819447153247</v>
+        <v>1.16750127749566</v>
       </c>
       <c r="L5">
-        <v>0.1163071962756277</v>
+        <v>0.1479095554488623</v>
       </c>
       <c r="M5">
-        <v>0.1309532130222983</v>
+        <v>0.1468705096516594</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.85804174151265</v>
+        <v>0.9029834196428368</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5179960050187447</v>
+        <v>0.5362518549347044</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02400070054394376</v>
+        <v>0.06023714359766075</v>
       </c>
       <c r="E6">
-        <v>0.3686107588211121</v>
+        <v>0.1649103898191993</v>
       </c>
       <c r="F6">
-        <v>0.5486457453676223</v>
+        <v>0.311718018398949</v>
       </c>
       <c r="G6">
-        <v>0.3920238897858823</v>
+        <v>0.2234652618478066</v>
       </c>
       <c r="H6">
-        <v>0.5650971567471927</v>
+        <v>0.2293697615815944</v>
       </c>
       <c r="I6">
-        <v>1.024079017529452</v>
+        <v>0.4456213927401649</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4223323720775625</v>
+        <v>1.161128200696396</v>
       </c>
       <c r="L6">
-        <v>0.1160457912293609</v>
+        <v>0.1469246935994306</v>
       </c>
       <c r="M6">
-        <v>0.1306945320661264</v>
+        <v>0.145907993839927</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.858675563797775</v>
+        <v>0.9025930897740579</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5246137224707184</v>
+        <v>0.5605901445978532</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02485551746110559</v>
+        <v>0.06278666219771623</v>
       </c>
       <c r="E7">
-        <v>0.3675800977823656</v>
+        <v>0.1632145223858181</v>
       </c>
       <c r="F7">
-        <v>0.5482918862569903</v>
+        <v>0.3161117676083833</v>
       </c>
       <c r="G7">
-        <v>0.391323042478021</v>
+        <v>0.2254330690299469</v>
       </c>
       <c r="H7">
-        <v>0.5637189637313398</v>
+        <v>0.2287103973624269</v>
       </c>
       <c r="I7">
-        <v>1.020139511365988</v>
+        <v>0.4389415508052501</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4372365814184036</v>
+        <v>1.205342065353875</v>
       </c>
       <c r="L7">
-        <v>0.1178646179225993</v>
+        <v>0.1537671624275987</v>
       </c>
       <c r="M7">
-        <v>0.1324942403295672</v>
+        <v>0.1525936598204005</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.854376879464354</v>
+        <v>0.905482565152866</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5541783567306027</v>
+        <v>0.6683838120526673</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02860061783994894</v>
+        <v>0.07400372786455733</v>
       </c>
       <c r="E8">
-        <v>0.3632932322709403</v>
+        <v>0.1561152073042837</v>
       </c>
       <c r="F8">
-        <v>0.5475219757770304</v>
+        <v>0.3369821621247695</v>
       </c>
       <c r="G8">
-        <v>0.3888734564273122</v>
+        <v>0.2354376512615275</v>
       </c>
       <c r="H8">
-        <v>0.5581852252488346</v>
+        <v>0.22667441176457</v>
       </c>
       <c r="I8">
-        <v>1.003775158141909</v>
+        <v>0.4112050430166239</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5025992456992299</v>
+        <v>1.399942822730935</v>
       </c>
       <c r="L8">
-        <v>0.1259985748210397</v>
+        <v>0.1841374573247663</v>
       </c>
       <c r="M8">
-        <v>0.1405384466419086</v>
+        <v>0.1822263972029354</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.837900348161881</v>
+        <v>0.9228446281503295</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6134229176605572</v>
+        <v>0.8816090085067856</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03584534859020039</v>
+        <v>0.09590834983752217</v>
       </c>
       <c r="E9">
-        <v>0.3558220341365015</v>
+        <v>0.143596707151632</v>
       </c>
       <c r="F9">
-        <v>0.5488556494041958</v>
+        <v>0.3837948901720125</v>
       </c>
       <c r="G9">
-        <v>0.3863845531193775</v>
+        <v>0.2603172487582484</v>
       </c>
       <c r="H9">
-        <v>0.5492995640650804</v>
+        <v>0.2260452328743483</v>
       </c>
       <c r="I9">
-        <v>0.9753468533030283</v>
+        <v>0.3633773034292229</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6292620930045985</v>
+        <v>1.780227553096125</v>
       </c>
       <c r="L9">
-        <v>0.1423305709971743</v>
+        <v>0.2444951642116138</v>
       </c>
       <c r="M9">
-        <v>0.1566733622428274</v>
+        <v>0.2409370821527759</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.814549206055261</v>
+        <v>0.9750208236609836</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6576996767951755</v>
+        <v>1.039835855261799</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04110601843690631</v>
+        <v>0.1119755705895358</v>
       </c>
       <c r="E10">
-        <v>0.3508997509826581</v>
+        <v>0.1352760507717838</v>
       </c>
       <c r="F10">
-        <v>0.5515689512053328</v>
+        <v>0.4223364374727936</v>
       </c>
       <c r="G10">
-        <v>0.3859709550311194</v>
+        <v>0.2823143755914188</v>
       </c>
       <c r="H10">
-        <v>0.5439669205611821</v>
+        <v>0.2278558726437012</v>
       </c>
       <c r="I10">
-        <v>0.9566893522558235</v>
+        <v>0.3325408675602528</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7213628056065602</v>
+        <v>2.059350562024349</v>
       </c>
       <c r="L10">
-        <v>0.1545581308636059</v>
+        <v>0.2895032900608925</v>
       </c>
       <c r="M10">
-        <v>0.1687417073076034</v>
+        <v>0.2845763049407708</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.802857518382964</v>
+        <v>1.025956908784437</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6780004482763786</v>
+        <v>1.112264457893673</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.043485484317074</v>
+        <v>0.1192863937609445</v>
       </c>
       <c r="E11">
-        <v>0.348782828657942</v>
+        <v>0.1316859865852653</v>
       </c>
       <c r="F11">
-        <v>0.5531797663869753</v>
+        <v>0.4409017211647921</v>
       </c>
       <c r="G11">
-        <v>0.3860909127201637</v>
+        <v>0.2932484586727142</v>
       </c>
       <c r="H11">
-        <v>0.541799994688354</v>
+        <v>0.2292252776328496</v>
       </c>
       <c r="I11">
-        <v>0.9486847119265249</v>
+        <v>0.3195167001774948</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7630465840919669</v>
+        <v>2.186401710789028</v>
       </c>
       <c r="L11">
-        <v>0.1601695907241378</v>
+        <v>0.3101639414849444</v>
       </c>
       <c r="M11">
-        <v>0.1742772746138712</v>
+        <v>0.3045711575576036</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.798725866153916</v>
+        <v>1.052228626501034</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6857101982737106</v>
+        <v>1.139765132382507</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04438452996946296</v>
+        <v>0.1220556577615355</v>
       </c>
       <c r="E12">
-        <v>0.3479987311866866</v>
+        <v>0.1303550063588541</v>
       </c>
       <c r="F12">
-        <v>0.5538438635802621</v>
+        <v>0.4480918993196639</v>
       </c>
       <c r="G12">
-        <v>0.3861806995337957</v>
+        <v>0.297532847088064</v>
       </c>
       <c r="H12">
-        <v>0.5410166208038589</v>
+        <v>0.2298269344027375</v>
       </c>
       <c r="I12">
-        <v>0.9457229370459768</v>
+        <v>0.3147352979111471</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7787996871902862</v>
+        <v>2.234534779731661</v>
       </c>
       <c r="L12">
-        <v>0.1623014672509697</v>
+        <v>0.318017938421292</v>
       </c>
       <c r="M12">
-        <v>0.1763798879669451</v>
+        <v>0.3121660797175423</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.797332025348254</v>
+        <v>1.062655003579209</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.684048783654589</v>
+        <v>1.133838954025833</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04419099435845908</v>
+        <v>0.1214592017190341</v>
       </c>
       <c r="E13">
-        <v>0.3481668214301754</v>
+        <v>0.1306403818442488</v>
       </c>
       <c r="F13">
-        <v>0.5536984319664313</v>
+        <v>0.4465360646032863</v>
       </c>
       <c r="G13">
-        <v>0.3861593884683003</v>
+        <v>0.2966035536475289</v>
       </c>
       <c r="H13">
-        <v>0.5411836807911925</v>
+        <v>0.2296935847592607</v>
       </c>
       <c r="I13">
-        <v>0.9463577214512267</v>
+        <v>0.315758258503303</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7754083971051386</v>
+        <v>2.224167327206317</v>
       </c>
       <c r="L13">
-        <v>0.1618420228101343</v>
+        <v>0.3163250362555914</v>
       </c>
       <c r="M13">
-        <v>0.1759267696047218</v>
+        <v>0.310529295658462</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.797624620148639</v>
+        <v>1.06038771442033</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6786342906908942</v>
+        <v>1.114525428985445</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04355948981508106</v>
+        <v>0.1195142031320557</v>
       </c>
       <c r="E14">
-        <v>0.3487179693102345</v>
+        <v>0.1315759122142837</v>
       </c>
       <c r="F14">
-        <v>0.5532333176471838</v>
+        <v>0.4414899887727231</v>
       </c>
       <c r="G14">
-        <v>0.3860974101484373</v>
+        <v>0.293597991646017</v>
       </c>
       <c r="H14">
-        <v>0.5417348008472445</v>
+        <v>0.2292730835497281</v>
       </c>
       <c r="I14">
-        <v>0.9484396539291247</v>
+        <v>0.319120276638893</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.764343240989632</v>
+        <v>2.190361152170937</v>
       </c>
       <c r="L14">
-        <v>0.1603448431166896</v>
+        <v>0.3108094674501558</v>
       </c>
       <c r="M14">
-        <v>0.1744501301635282</v>
+        <v>0.3051955131021131</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.798607772185335</v>
+        <v>1.053076643983047</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6753206427365512</v>
+        <v>1.102705183309183</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04317241240981673</v>
+        <v>0.1183229585519712</v>
       </c>
       <c r="E15">
-        <v>0.3490578455781339</v>
+        <v>0.1321526767704628</v>
       </c>
       <c r="F15">
-        <v>0.5529554684354494</v>
+        <v>0.4384202971236988</v>
       </c>
       <c r="G15">
-        <v>0.386065225453784</v>
+        <v>0.2917760595967636</v>
       </c>
       <c r="H15">
-        <v>0.5420772203959388</v>
+        <v>0.2290264773513755</v>
       </c>
       <c r="I15">
-        <v>0.9497239364455847</v>
+        <v>0.3211994098973481</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7575613643656425</v>
+        <v>2.169657027148446</v>
       </c>
       <c r="L15">
-        <v>0.1594286773702152</v>
+        <v>0.3074350695522554</v>
       </c>
       <c r="M15">
-        <v>0.1735464768652974</v>
+        <v>0.301931536007551</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.799232216032351</v>
+        <v>1.048661614105583</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6563761243001238</v>
+        <v>1.035112275902861</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04095023643372997</v>
+        <v>0.1114978737117269</v>
       </c>
       <c r="E16">
-        <v>0.3510405530135565</v>
+        <v>0.1355146328880721</v>
       </c>
       <c r="F16">
-        <v>0.551471254948531</v>
+        <v>0.4211448917775513</v>
       </c>
       <c r="G16">
-        <v>0.3859693202221308</v>
+        <v>0.2816193557158186</v>
       </c>
       <c r="H16">
-        <v>0.5441137411113885</v>
+        <v>0.2277777487568713</v>
       </c>
       <c r="I16">
-        <v>0.9572221876209106</v>
+        <v>0.3334127483581906</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7186342978032201</v>
+        <v>2.051049895873149</v>
       </c>
       <c r="L16">
-        <v>0.1541923862080807</v>
+        <v>0.2881571075870966</v>
       </c>
       <c r="M16">
-        <v>0.168380850451598</v>
+        <v>0.2832727035352107</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.803151419931098</v>
+        <v>1.024305073414268</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6447945976240987</v>
+        <v>0.9937676415218277</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03958347803580864</v>
+        <v>0.1073117449258092</v>
       </c>
       <c r="E17">
-        <v>0.352288159170649</v>
+        <v>0.1376273549938296</v>
       </c>
       <c r="F17">
-        <v>0.5506571554356654</v>
+        <v>0.4108193728011003</v>
       </c>
       <c r="G17">
-        <v>0.3859894391155407</v>
+        <v>0.2756333853441646</v>
       </c>
       <c r="H17">
-        <v>0.5454293689355936</v>
+        <v>0.2271546686164996</v>
       </c>
       <c r="I17">
-        <v>0.9619457584831679</v>
+        <v>0.3411666071868371</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.694698483453692</v>
+        <v>1.978315148471239</v>
       </c>
       <c r="L17">
-        <v>0.1509925772407996</v>
+        <v>0.2763808060065287</v>
       </c>
       <c r="M17">
-        <v>0.1652234859358259</v>
+        <v>0.2718646608536091</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.805859764143449</v>
+        <v>1.01017943159502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6381482152781643</v>
+        <v>0.9700291393145335</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03879607367017002</v>
+        <v>0.1049041248345901</v>
       </c>
       <c r="E18">
-        <v>0.3530172585108995</v>
+        <v>0.1388608671434211</v>
       </c>
       <c r="F18">
-        <v>0.5502243485217306</v>
+        <v>0.4049768721439975</v>
       </c>
       <c r="G18">
-        <v>0.3860300080422903</v>
+        <v>0.2722770465449074</v>
       </c>
       <c r="H18">
-        <v>0.546210456381985</v>
+        <v>0.2268473642686928</v>
       </c>
       <c r="I18">
-        <v>0.9647080708717795</v>
+        <v>0.3457204797132203</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6809112171449101</v>
+        <v>1.936486587293643</v>
       </c>
       <c r="L18">
-        <v>0.1491567586915323</v>
+        <v>0.2696246967351641</v>
       </c>
       <c r="M18">
-        <v>0.1634117557149359</v>
+        <v>0.2653163576618063</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.807529251515675</v>
+        <v>1.00234455815</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6359004594040414</v>
+        <v>0.9619986180009334</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03852925342761182</v>
+        <v>0.1040889519318284</v>
       </c>
       <c r="E19">
-        <v>0.3532660970998167</v>
+        <v>0.1392816479510399</v>
       </c>
       <c r="F19">
-        <v>0.5500838954563108</v>
+        <v>0.4030149322496968</v>
       </c>
       <c r="G19">
-        <v>0.3860487225239453</v>
+        <v>0.2711552168285607</v>
       </c>
       <c r="H19">
-        <v>0.54647910645118</v>
+        <v>0.226751952265424</v>
       </c>
       <c r="I19">
-        <v>0.9656511469530038</v>
+        <v>0.347278311672456</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6762396769173336</v>
+        <v>1.922324970783905</v>
       </c>
       <c r="L19">
-        <v>0.1485359803905908</v>
+        <v>0.2673400644563912</v>
       </c>
       <c r="M19">
-        <v>0.1627990783568194</v>
+        <v>0.26310141909115</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.808113697799797</v>
+        <v>0.9997406382429546</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6460259221263129</v>
+        <v>0.9981644566350099</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03972910471406976</v>
+        <v>0.1077573480285281</v>
       </c>
       <c r="E20">
-        <v>0.3521541585198433</v>
+        <v>0.1374005517942127</v>
       </c>
       <c r="F20">
-        <v>0.5507401498360309</v>
+        <v>0.4119084775130304</v>
       </c>
       <c r="G20">
-        <v>0.3859842959255104</v>
+        <v>0.2762615617160691</v>
       </c>
       <c r="H20">
-        <v>0.5452867958604273</v>
+        <v>0.2272156779453951</v>
       </c>
       <c r="I20">
-        <v>0.961438223572598</v>
+        <v>0.3403314166905052</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6972485706578482</v>
+        <v>1.986057135699582</v>
       </c>
       <c r="L20">
-        <v>0.1513327243618932</v>
+        <v>0.2776325976138025</v>
       </c>
       <c r="M20">
-        <v>0.1655591485567811</v>
+        <v>0.2730776706819071</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.805559893414028</v>
+        <v>1.011652909197309</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6802240582640593</v>
+        <v>1.120196211103803</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04374503282160447</v>
+        <v>0.1200854696376439</v>
       </c>
       <c r="E21">
-        <v>0.3485556082718497</v>
+        <v>0.1313003471055594</v>
       </c>
       <c r="F21">
-        <v>0.5533684645132979</v>
+        <v>0.4429677092512065</v>
       </c>
       <c r="G21">
-        <v>0.3861144102848897</v>
+        <v>0.2944768060027414</v>
       </c>
       <c r="H21">
-        <v>0.5415719144019278</v>
+        <v>0.2293943016460673</v>
       </c>
       <c r="I21">
-        <v>0.9478262562425375</v>
+        <v>0.3181286324356876</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7675942119340675</v>
+        <v>2.200290172348701</v>
       </c>
       <c r="L21">
-        <v>0.1607844137297292</v>
+        <v>0.3124286737455009</v>
       </c>
       <c r="M21">
-        <v>0.1748836820422568</v>
+        <v>0.3067615192912214</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.79831436280702</v>
+        <v>1.055210849489697</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7027041613337417</v>
+        <v>1.200384108597319</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04635795793657849</v>
+        <v>0.1281476390788043</v>
       </c>
       <c r="E22">
-        <v>0.3463059351647759</v>
+        <v>0.1274798500482268</v>
       </c>
       <c r="F22">
-        <v>0.5554016386578482</v>
+        <v>0.4642045779282782</v>
       </c>
       <c r="G22">
-        <v>0.3864580451349013</v>
+        <v>0.307225556899283</v>
       </c>
       <c r="H22">
-        <v>0.5393608013135349</v>
+        <v>0.2313048343246606</v>
       </c>
       <c r="I22">
-        <v>0.9393346110319403</v>
+        <v>0.3044986057749455</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8133842912290277</v>
+        <v>2.340434958887244</v>
       </c>
       <c r="L22">
-        <v>0.1670020262435656</v>
+        <v>0.3353480540466762</v>
       </c>
       <c r="M22">
-        <v>0.1810151228608348</v>
+        <v>0.3289130913974532</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.794574130936979</v>
+        <v>1.086479995620152</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6906944371536952</v>
+        <v>1.1575436467119</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04496447758519651</v>
+        <v>0.1238440531225251</v>
       </c>
       <c r="E23">
-        <v>0.3474972924009745</v>
+        <v>0.129503546513269</v>
       </c>
       <c r="F23">
-        <v>0.5542876437618602</v>
+        <v>0.4527802915333936</v>
       </c>
       <c r="G23">
-        <v>0.3862509608073879</v>
+        <v>0.3003404367980238</v>
       </c>
       <c r="H23">
-        <v>0.5405210916394196</v>
+        <v>0.2302390166327797</v>
       </c>
       <c r="I23">
-        <v>0.9438297477537656</v>
+        <v>0.3116904563598641</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7889624979437144</v>
+        <v>2.265621363114633</v>
       </c>
       <c r="L23">
-        <v>0.1636799135026337</v>
+        <v>0.3230980432643236</v>
       </c>
       <c r="M23">
-        <v>0.1777392908321929</v>
+        <v>0.3170768796082726</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.796479293958555</v>
+        <v>1.069523648653814</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6454692029231239</v>
+        <v>0.9961765603748631</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03966327198799036</v>
+        <v>0.1075558938946415</v>
       </c>
       <c r="E24">
-        <v>0.3522147033497576</v>
+        <v>0.1375030307475327</v>
       </c>
       <c r="F24">
-        <v>0.5507025183285847</v>
+        <v>0.4114158020325718</v>
       </c>
       <c r="G24">
-        <v>0.3859865308264858</v>
+        <v>0.2759772989758886</v>
       </c>
       <c r="H24">
-        <v>0.5453511761577658</v>
+        <v>0.2271879373919674</v>
       </c>
       <c r="I24">
-        <v>0.9616675347368915</v>
+        <v>0.340708707529485</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6960957579191813</v>
+        <v>1.982557022639554</v>
       </c>
       <c r="L24">
-        <v>0.1511789320211818</v>
+        <v>0.2770666185236053</v>
       </c>
       <c r="M24">
-        <v>0.1654073846331414</v>
+        <v>0.2725292369587109</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.805695114782537</v>
+        <v>1.010985861087889</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5972623341455403</v>
+        <v>0.8236841448515406</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03389624663306989</v>
+        <v>0.08998942279253441</v>
       </c>
       <c r="E25">
-        <v>0.3577434097383219</v>
+        <v>0.1468309288571952</v>
       </c>
       <c r="F25">
-        <v>0.548190437985582</v>
+        <v>0.3704446530768095</v>
       </c>
       <c r="G25">
-        <v>0.3868096546580873</v>
+        <v>0.2529723792671703</v>
       </c>
       <c r="H25">
-        <v>0.5514931950317745</v>
+        <v>0.2258331398365314</v>
       </c>
       <c r="I25">
-        <v>0.982645795836655</v>
+        <v>0.3755830978117434</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5951621663460855</v>
+        <v>1.677439375179063</v>
       </c>
       <c r="L25">
-        <v>0.1378719250622424</v>
+        <v>0.2280635596370217</v>
       </c>
       <c r="M25">
-        <v>0.1522704517802573</v>
+        <v>0.2249761712646894</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.819906880378241</v>
+        <v>0.9588099747927146</v>
       </c>
     </row>
   </sheetData>
